--- a/resultOfExample12.xlsx
+++ b/resultOfExample12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kushidatatsuya/Downloads/sample2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B1A2D22-F316-E04C-BBE0-DC370F2402AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AA6089-3977-924A-A00B-2425BBDBF045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="1320" windowWidth="27900" windowHeight="16940" xr2:uid="{A3C06E6C-3C79-DF49-8F1E-8E88EFBBB2FA}"/>
+    <workbookView xWindow="-31060" yWindow="3540" windowWidth="27900" windowHeight="16940" xr2:uid="{A3C06E6C-3C79-DF49-8F1E-8E88EFBBB2FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F79ED1-2530-9C48-BEA7-5EAC3DF8D54B}">
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
